--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_3_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_3_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[58.92333473065962, 67.97397066644636]</t>
+          <t>[58.87385302329284, 68.02345237381314]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.519438604571846, 52.80012507772659]</t>
+          <t>[46.51986363576425, 52.799700046534184]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[56.23642535609114, 69.99751847047631]</t>
+          <t>[56.23779105879879, 69.99615276776865]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[45.544620731359444, 52.67854642979478]</t>
+          <t>[45.54280939407556, 52.68035776707866]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_3_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_3_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[58.87385302329284, 68.02345237381314]</t>
+          <t>[58.94589115152982, 67.95141424557616]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.51986363576425, 52.799700046534184]</t>
+          <t>[46.52056566781549, 52.79899801448295]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[56.23779105879879, 69.99615276776865]</t>
+          <t>[56.30315755284377, 69.93078627372367]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[45.54280939407556, 52.68035776707866]</t>
+          <t>[45.54393883523295, 52.67922832592127]</t>
         </is>
       </c>
       <c r="U3" t="n">
